--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 5/id.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 5/id.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>_id</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Talent</t>
+  </si>
+  <si>
+    <t>Sauteruz</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -569,11 +572,27 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5070000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5070</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
